--- a/outputs-r202/test-f__CAG-826.xlsx
+++ b/outputs-r202/test-f__CAG-826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Row</t>
   </si>
@@ -124,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,14 +134,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,682 +181,682 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="C2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="D2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="E2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="F2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="G2">
-        <v>0.0015721913531673169</v>
+        <v>0.0015403209826521447</v>
       </c>
       <c r="H2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="I2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="J2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="K2">
-        <v>2.5900554013586487e-12</v>
+        <v>1.2043783432703242e-11</v>
       </c>
       <c r="L2">
-        <v>0.99784427473581194</v>
+        <v>0.99795516406466911</v>
       </c>
       <c r="M2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="N2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="O2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="P2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="Q2">
-        <v>0.00058353390811976527</v>
+        <v>0.00050451494032421537</v>
       </c>
       <c r="R2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="S2">
-        <v>2.2202116928469302e-14</v>
+        <v>2.2202150799532039e-14</v>
       </c>
       <c r="T2">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.14518017810441e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="C3">
-        <v>3.14518017810441e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="D3">
-        <v>3.14518017810441e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="E3">
-        <v>3.1451801781044119e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="F3">
-        <v>3.1451801781044125e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="G3">
-        <v>0.0043616721304860617</v>
+        <v>0.0018892137528299831</v>
       </c>
       <c r="H3">
-        <v>3.1451801781044106e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="I3">
-        <v>3.1451801781044119e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="J3">
-        <v>3.1451801781044113e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="K3">
-        <v>0.87153876315590151</v>
+        <v>0.96500030756980204</v>
       </c>
       <c r="L3">
-        <v>0.12331415476485982</v>
+        <v>0.032900278024618694</v>
       </c>
       <c r="M3">
-        <v>3.1451801781044144e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="N3">
-        <v>3.1451801781044163e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="O3">
-        <v>3.1451801781044163e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="P3">
-        <v>3.1451801781044144e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="Q3">
-        <v>0.00078540994831254323</v>
+        <v>0.00021020065243850845</v>
       </c>
       <c r="R3">
-        <v>3.1451801781044144e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="S3">
-        <v>3.1451801781044132e-14</v>
+        <v>2.2199721583453351e-14</v>
       </c>
       <c r="T3">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="C4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="D4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="E4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="F4">
-        <v>0.99784771584980847</v>
+        <v>0.99917783099455415</v>
       </c>
       <c r="G4">
-        <v>2.2037910988279247e-07</v>
+        <v>1.7709872519537948e-07</v>
       </c>
       <c r="H4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="I4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="J4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="K4">
-        <v>1.5268090247032293e-11</v>
+        <v>1.3181553066663775e-09</v>
       </c>
       <c r="L4">
-        <v>0.0021487406258736464</v>
+        <v>0.00081931330806888009</v>
       </c>
       <c r="M4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="N4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="O4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="P4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="Q4">
-        <v>3.3231296512608333e-06</v>
+        <v>2.6772802076563354e-06</v>
       </c>
       <c r="R4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="S4">
-        <v>2.2201822335116755e-14</v>
+        <v>2.2203448741051268e-14</v>
       </c>
       <c r="T4">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00053289427935291343</v>
+        <v>0.00054958172602063505</v>
       </c>
       <c r="C5">
-        <v>0.00053289427935291343</v>
+        <v>0.00054958172602063505</v>
       </c>
       <c r="D5">
-        <v>0.00053289427935291267</v>
+        <v>0.00054958172602063461</v>
       </c>
       <c r="E5">
-        <v>0.00053289427935291375</v>
+        <v>0.00054958172602063537</v>
       </c>
       <c r="F5">
-        <v>0.00053289427935291375</v>
+        <v>0.00054958172602063537</v>
       </c>
       <c r="G5">
-        <v>0.00053289427935291418</v>
+        <v>0.00054958172602063515</v>
       </c>
       <c r="H5">
-        <v>0.00053289427935291418</v>
+        <v>0.00054958172602063515</v>
       </c>
       <c r="I5">
-        <v>0.00053289427935291418</v>
+        <v>0.00054958172602063515</v>
       </c>
       <c r="J5">
-        <v>0.00053289427935291418</v>
+        <v>0.00054958172602063515</v>
       </c>
       <c r="K5">
-        <v>0.00053289427935291061</v>
+        <v>0.00054958172602063103</v>
       </c>
       <c r="L5">
-        <v>0.00053289427935291071</v>
+        <v>0.00054958172602063125</v>
       </c>
       <c r="M5">
-        <v>0.00053289427935291071</v>
+        <v>0.00054958172602063125</v>
       </c>
       <c r="N5">
-        <v>0.00053289427935291071</v>
+        <v>0.00054958172602063125</v>
       </c>
       <c r="O5">
-        <v>0.00053289427935291071</v>
+        <v>0.00054958172602063125</v>
       </c>
       <c r="P5">
-        <v>0.00053289427935290779</v>
+        <v>0.00054958172602062821</v>
       </c>
       <c r="Q5">
-        <v>0.99094079725100048</v>
+        <v>0.99065711065764916</v>
       </c>
       <c r="R5">
-        <v>0.00053289427935290844</v>
+        <v>0.00054958172602062843</v>
       </c>
       <c r="S5">
-        <v>0.00053289427935290345</v>
+        <v>0.00054958172602062767</v>
       </c>
       <c r="T5">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.00052236476721668134</v>
+        <v>0.00052300536487574366</v>
       </c>
       <c r="C6">
-        <v>0.00052236476721668134</v>
+        <v>0.00052300536487574366</v>
       </c>
       <c r="D6">
-        <v>0.00052236476721668134</v>
+        <v>0.00052300536487574355</v>
       </c>
       <c r="E6">
-        <v>0.00052236476721668134</v>
+        <v>0.00052300536487574366</v>
       </c>
       <c r="F6">
-        <v>0.00052236476721668134</v>
+        <v>0.00052300536487574366</v>
       </c>
       <c r="G6">
-        <v>0.00052236476721668232</v>
+        <v>0.00052300536487574355</v>
       </c>
       <c r="H6">
-        <v>0.00052236476721668232</v>
+        <v>0.00052300536487574355</v>
       </c>
       <c r="I6">
-        <v>0.00052236476721668232</v>
+        <v>0.00052300536487574355</v>
       </c>
       <c r="J6">
-        <v>0.00052236476721668232</v>
+        <v>0.00052300536487574355</v>
       </c>
       <c r="K6">
-        <v>0.0005223647672166782</v>
+        <v>0.00052300536487573878</v>
       </c>
       <c r="L6">
-        <v>0.0005223647672166782</v>
+        <v>0.00052300536487573878</v>
       </c>
       <c r="M6">
-        <v>0.0005223647672166782</v>
+        <v>0.00052300536487573878</v>
       </c>
       <c r="N6">
-        <v>0.0005223647672166782</v>
+        <v>0.00052300536487573878</v>
       </c>
       <c r="O6">
-        <v>0.0005223647672166782</v>
+        <v>0.00052300536487573878</v>
       </c>
       <c r="P6">
-        <v>0.00052236476721667592</v>
+        <v>0.0005230053648757365</v>
       </c>
       <c r="Q6">
-        <v>0.9911197989573165</v>
+        <v>0.99110890879711244</v>
       </c>
       <c r="R6">
-        <v>0.00052236476721667592</v>
+        <v>0.0005230053648757365</v>
       </c>
       <c r="S6">
-        <v>0.0005223647672166757</v>
+        <v>0.00052300536487573509</v>
       </c>
       <c r="T6">
         <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.00052218173957832201</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.00052218173957832201</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00052218173957832201</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.00052218173957832201</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.00052218173957832201</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00052218173957832245</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00052218173957832245</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00052218173957832245</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.00052218173957832245</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.00052218173957831681</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.00052218173957831681</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.00052218173957831681</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.00052218173957831681</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00052218173957831681</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.00052218173957831507</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9911229104271686</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.00052218173957831507</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.00052218173957831193</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.00052230159372386421</v>
+        <v>0.00052392593261957614</v>
       </c>
       <c r="C8">
-        <v>0.00052230159372386421</v>
+        <v>0.00052392593261957614</v>
       </c>
       <c r="D8">
-        <v>0.00052230159372386334</v>
+        <v>0.00052392593261957614</v>
       </c>
       <c r="E8">
-        <v>0.00052230159372386421</v>
+        <v>0.00052392593261957614</v>
       </c>
       <c r="F8">
-        <v>0.00052230159372386421</v>
+        <v>0.00052392593261957614</v>
       </c>
       <c r="G8">
-        <v>0.00052230159372386442</v>
+        <v>0.00052392593261957636</v>
       </c>
       <c r="H8">
-        <v>0.00052230159372386442</v>
+        <v>0.00052392593261957668</v>
       </c>
       <c r="I8">
-        <v>0.00052230159372386442</v>
+        <v>0.00052392593261957668</v>
       </c>
       <c r="J8">
-        <v>0.00052230159372386442</v>
+        <v>0.00052392593261957668</v>
       </c>
       <c r="K8">
-        <v>0.00052230159372386074</v>
+        <v>0.00052392593261957397</v>
       </c>
       <c r="L8">
-        <v>0.00052230159372386117</v>
+        <v>0.00052392593261957408</v>
       </c>
       <c r="M8">
-        <v>0.00052230159372386117</v>
+        <v>0.00052392593261957408</v>
       </c>
       <c r="N8">
-        <v>0.00052230159372386117</v>
+        <v>0.00052392593261957408</v>
       </c>
       <c r="O8">
-        <v>0.00052230159372386117</v>
+        <v>0.00052392593261957408</v>
       </c>
       <c r="P8">
-        <v>0.0005223015937238577</v>
+        <v>0.00052392593261957159</v>
       </c>
       <c r="Q8">
-        <v>0.99112087290669426</v>
+        <v>0.9910932591454672</v>
       </c>
       <c r="R8">
-        <v>0.0005223015937238577</v>
+        <v>0.00052392593261957159</v>
       </c>
       <c r="S8">
-        <v>0.00052230159372385618</v>
+        <v>0.00052392593261956953</v>
       </c>
       <c r="T8">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="C9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="D9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="E9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="F9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="G9">
-        <v>7.1748250411104167e-08</v>
+        <v>1.4563877399307712e-07</v>
       </c>
       <c r="H9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="I9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="J9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="K9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="L9">
-        <v>6.7727144645873591e-05</v>
+        <v>0.00023882278043650318</v>
       </c>
       <c r="M9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="N9">
-        <v>0.99903063114103519</v>
+        <v>0.99901195343907812</v>
       </c>
       <c r="O9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="P9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="Q9">
-        <v>0.00090156996575771258</v>
+        <v>0.00074907814140058018</v>
       </c>
       <c r="R9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="S9">
-        <v>2.2203268118333334e-14</v>
+        <v>2.2203245211605531e-14</v>
       </c>
       <c r="T9">
         <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="C10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="D10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="E10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="F10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="G10">
-        <v>1.2611839249271321e-12</v>
+        <v>3.5824915598961296e-12</v>
       </c>
       <c r="H10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="I10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="J10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="K10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="L10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="M10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="N10">
-        <v>0.99994614898812029</v>
+        <v>0.99992922311959254</v>
       </c>
       <c r="O10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="P10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="Q10">
-        <v>5.385101028539503e-05</v>
+        <v>7.0776876492005292e-05</v>
       </c>
       <c r="R10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="S10">
-        <v>2.22043940734681e-14</v>
+        <v>2.2204373201715811e-14</v>
       </c>
       <c r="T10">
         <v>13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="C11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="D11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="E11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="F11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="G11">
-        <v>1.5526226417872514e-10</v>
+        <v>2.8024513060193071e-10</v>
       </c>
       <c r="H11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="I11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="J11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="K11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="L11">
-        <v>6.049916075102703e-07</v>
+        <v>6.6069903583256517e-07</v>
       </c>
       <c r="M11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="N11">
-        <v>0.99168560543977302</v>
+        <v>0.99494780833763796</v>
       </c>
       <c r="O11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="P11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="Q11">
-        <v>0.0083137894130463508</v>
+        <v>0.0050515306827701775</v>
       </c>
       <c r="R11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="S11">
-        <v>2.2200936207261469e-14</v>
+        <v>2.2200910040997644e-14</v>
       </c>
       <c r="T11">
         <v>13</v>
